--- a/For report/table for report/long windowsize.xlsx
+++ b/For report/table for report/long windowsize.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salesio\Desktop\DEV\Keras_StockPrice\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s19529\OneDrive - salesio-sp.ac.jp\デスクトップ\DEV\For report\table for report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE6CCB2-F04D-4499-A4E5-6726FCF9821D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D135C-1987-4CF5-8908-1B972CAB6AB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,368 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,10 +758,10 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" t="s">
@@ -1394,6 +1755,36 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B22:B34">
+    <cfRule type="top10" dxfId="15" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C34">
+    <cfRule type="top10" dxfId="12" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D34">
+    <cfRule type="top10" dxfId="11" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E34">
+    <cfRule type="top10" dxfId="9" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F34">
+    <cfRule type="top10" dxfId="8" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G34">
+    <cfRule type="top10" dxfId="7" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H34">
+    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I34">
+    <cfRule type="top10" dxfId="4" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J34">
+    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K34">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/For report/table for report/long windowsize.xlsx
+++ b/For report/table for report/long windowsize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s19529\OneDrive - salesio-sp.ac.jp\デスクトップ\DEV\For report\table for report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D135C-1987-4CF5-8908-1B972CAB6AB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF8B2E4-1FC1-40C9-A9B9-7B9F94030B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>r2</t>
     <phoneticPr fontId="1"/>
@@ -118,247 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -490,6 +250,1202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C28C-41C4-BFBC-14644C84A094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="553016672"/>
+        <c:axId val="665346080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553016672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="665346080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665346080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553016672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BBD3D9-59CA-4592-9456-6B572F845EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1753,39 +2709,104 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B22:B34">
-    <cfRule type="top10" dxfId="15" priority="10" rank="1"/>
+  <conditionalFormatting sqref="B22:B34 B37">
+    <cfRule type="top10" dxfId="11" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C34">
-    <cfRule type="top10" dxfId="12" priority="9" rank="1"/>
+  <conditionalFormatting sqref="C22:C34 C37">
+    <cfRule type="top10" dxfId="10" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D34">
-    <cfRule type="top10" dxfId="11" priority="8" rank="1"/>
+  <conditionalFormatting sqref="D22:D34 D37">
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E34">
-    <cfRule type="top10" dxfId="9" priority="7" rank="1"/>
+  <conditionalFormatting sqref="E22:E34 E37">
+    <cfRule type="top10" dxfId="8" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F34">
-    <cfRule type="top10" dxfId="8" priority="6" rank="1"/>
+  <conditionalFormatting sqref="F22:F34 F37">
+    <cfRule type="top10" dxfId="7" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G34">
-    <cfRule type="top10" dxfId="7" priority="5" rank="1"/>
+  <conditionalFormatting sqref="G22:G34 G37">
+    <cfRule type="top10" dxfId="6" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H34">
-    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+  <conditionalFormatting sqref="H22:H34 H37">
+    <cfRule type="top10" dxfId="5" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I34">
-    <cfRule type="top10" dxfId="4" priority="3" rank="1"/>
+  <conditionalFormatting sqref="I22:I34 I37">
+    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J34">
-    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+  <conditionalFormatting sqref="J22:J34 J37">
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K34">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>